--- a/com.espn/src/test/resources/espn_test_data.xlsx
+++ b/com.espn/src/test/resources/espn_test_data.xlsx
@@ -8,26 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naweedkhaleque/IdeaProjects/SeleniumBootcamp/com.espn/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DE1099-CE58-D047-A7FF-9662DC7E1C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7968A5-1F33-3B4F-B3EA-2E510FB54A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" firstSheet="1" activeTab="2" xr2:uid="{7B928831-F53C-A542-9271-10D2139B6158}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" firstSheet="4" activeTab="12" xr2:uid="{7B928831-F53C-A542-9271-10D2139B6158}"/>
   </bookViews>
   <sheets>
-    <sheet name="PacificTeams" sheetId="1" r:id="rId1"/>
-    <sheet name="LakersNameText" sheetId="13" r:id="rId2"/>
-    <sheet name="YankeesNameText" sheetId="14" r:id="rId3"/>
-    <sheet name="LebronJames" sheetId="3" r:id="rId4"/>
-    <sheet name="LakersScheduleTitle" sheetId="5" r:id="rId5"/>
-    <sheet name="LHRaceResults" sheetId="6" r:id="rId6"/>
-    <sheet name="LakersSeasonValue" sheetId="7" r:id="rId7"/>
-    <sheet name="WorldCupDate" sheetId="8" r:id="rId8"/>
-    <sheet name="BrockLesnarWWETitleHistory" sheetId="9" r:id="rId9"/>
-    <sheet name="LebronJamesStats" sheetId="10" r:id="rId10"/>
-    <sheet name="IslamMakhachev" sheetId="4" r:id="rId11"/>
-    <sheet name="MMAP4P#1" sheetId="19" state="hidden" r:id="rId12"/>
-    <sheet name="AmericanLeagueEastTeams" sheetId="2" r:id="rId13"/>
-    <sheet name="UnfollowButtonText" sheetId="11" state="hidden" r:id="rId14"/>
-    <sheet name="NHLScoresText" sheetId="12" state="hidden" r:id="rId15"/>
+    <sheet name="LakersNameText" sheetId="13" r:id="rId1"/>
+    <sheet name="YankeesNameText" sheetId="14" r:id="rId2"/>
+    <sheet name="LebronJames" sheetId="3" r:id="rId3"/>
+    <sheet name="LakersScheduleTitle" sheetId="5" r:id="rId4"/>
+    <sheet name="LHRaceResults" sheetId="6" r:id="rId5"/>
+    <sheet name="LakersSeasonValue" sheetId="7" r:id="rId6"/>
+    <sheet name="WorldCupDate" sheetId="8" r:id="rId7"/>
+    <sheet name="BrockLesnarWWETitleHistory" sheetId="9" r:id="rId8"/>
+    <sheet name="LebronJamesStats" sheetId="10" r:id="rId9"/>
+    <sheet name="IslamMakhachev" sheetId="4" r:id="rId10"/>
+    <sheet name="MMAP4P#1" sheetId="19" r:id="rId11"/>
+    <sheet name="UnfollowButtonText" sheetId="11" r:id="rId12"/>
+    <sheet name="NHLScoresText" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,38 +45,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Baltimore Orioles</t>
-  </si>
-  <si>
-    <t>Boston Red Sox</t>
-  </si>
-  <si>
     <t>New York Yankees</t>
   </si>
   <si>
-    <t>Tampa Bay Rays</t>
-  </si>
-  <si>
-    <t>Toronto Blue Jays</t>
-  </si>
-  <si>
     <t>searchTerm</t>
   </si>
   <si>
@@ -104,27 +78,6 @@
   </si>
   <si>
     <t>Saturday, November 5, 2022</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>KOBE</t>
@@ -499,69 +452,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E64ECE1-86E2-664D-83A0-D297BB1E4E6C}">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A2:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.33203125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3CA0B6-B515-1B48-9718-97BB94EB8CB8}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -569,33 +475,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E754BA-4963-464F-815B-730EA1362BB7}">
-  <dimension ref="A2:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3E8765-E97E-BA43-9559-D33DE87114EE}">
   <dimension ref="A2:B2"/>
   <sheetViews>
@@ -612,10 +491,33 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D99CE1-DA07-A847-9FA9-124924A97666}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -624,10 +526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D99CE1-DA07-A847-9FA9-124924A97666}">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390D7303-5839-0441-8A7C-D68AFBE5CE6A}">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -635,13 +534,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -650,83 +546,10 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED7DEAE-0524-D643-B98B-5C40C4889FD5}">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A2:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390D7303-5839-0441-8A7C-D68AFBE5CE6A}">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562A714E-46DA-A445-A7D1-203BE3A34F7E}">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -738,7 +561,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -747,21 +570,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3CA0B6-B515-1B48-9718-97BB94EB8CB8}">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3D4BE5-E24C-CC4F-A21D-5F238BC81B5E}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -770,33 +593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3D4BE5-E24C-CC4F-A21D-5F238BC81B5E}">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E668148A-2E49-A04D-AD4F-6C6CFBA6D6BD}">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -812,7 +609,81 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC775EA-E0AC-664A-9B02-A7E2AF2A6841}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.33203125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772901F6-749D-884A-997E-2C8992C5F98B}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EDEC83-2F98-F840-BBBF-1642F619D8E5}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -823,81 +694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC775EA-E0AC-664A-9B02-A7E2AF2A6841}">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.33203125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772901F6-749D-884A-997E-2C8992C5F98B}">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.6640625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EDEC83-2F98-F840-BBBF-1642F619D8E5}">
-  <dimension ref="A2:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B3EB65-B74C-924C-9BEF-31A58CCFD34D}">
   <dimension ref="A2"/>
   <sheetViews>
@@ -913,15 +710,15 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B25C623-F809-C742-B920-D0B23AF42F7A}">
   <dimension ref="A2"/>
   <sheetViews>
@@ -937,7 +734,34 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E754BA-4963-464F-815B-730EA1362BB7}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/com.espn/src/test/resources/espn_test_data.xlsx
+++ b/com.espn/src/test/resources/espn_test_data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naweedkhaleque/IdeaProjects/SeleniumBootcamp/com.espn/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7968A5-1F33-3B4F-B3EA-2E510FB54A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC12347-093B-5A44-97CD-955B00B9ECBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" firstSheet="4" activeTab="12" xr2:uid="{7B928831-F53C-A542-9271-10D2139B6158}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{7B928831-F53C-A542-9271-10D2139B6158}"/>
   </bookViews>
   <sheets>
-    <sheet name="LakersNameText" sheetId="13" r:id="rId1"/>
-    <sheet name="YankeesNameText" sheetId="14" r:id="rId2"/>
+    <sheet name="Nets" sheetId="13" r:id="rId1"/>
+    <sheet name="Mets" sheetId="14" r:id="rId2"/>
     <sheet name="LebronJames" sheetId="3" r:id="rId3"/>
     <sheet name="LakersScheduleTitle" sheetId="5" r:id="rId4"/>
     <sheet name="LHRaceResults" sheetId="6" r:id="rId5"/>
@@ -47,12 +47,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>New York Yankees</t>
-  </si>
-  <si>
     <t>searchTerm</t>
   </si>
   <si>
@@ -93,6 +87,12 @@
   </si>
   <si>
     <t>UNFOLLOW</t>
+  </si>
+  <si>
+    <t>New York Mets</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3CA0B6-B515-1B48-9718-97BB94EB8CB8}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,7 +466,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -491,10 +491,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -517,7 +517,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -537,7 +537,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562A714E-46DA-A445-A7D1-203BE3A34F7E}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -561,7 +561,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -574,7 +574,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,7 +584,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -609,10 +609,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +636,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -683,10 +683,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -710,7 +710,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +734,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -758,10 +758,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
